--- a/铜/eta/1.铜_数据上传.xlsx
+++ b/铜/eta/1.铜_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23415" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1727,11 +1727,6 @@
       <c r="R25" s="14" t="n"/>
       <c r="T25" s="15" t="n"/>
     </row>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="13" t="n"/>

--- a/铜/eta/1.铜_数据上传.xlsx
+++ b/铜/eta/1.铜_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23415" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1146,7 +1146,7 @@
         <v>45789</v>
       </c>
       <c r="F3" s="12" t="n">
-        <v>10782</v>
+        <v>10858</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.02218170042771309</v>
+        <v>0.02343553553557462</v>
       </c>
     </row>
     <row r="4">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10782</v>
+        <v>10858</v>
       </c>
       <c r="E3" s="1" t="n"/>
     </row>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10633</v>
+        <v>10731</v>
       </c>
       <c r="C4" t="n">
         <v>10219</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.03893538982413242</v>
+        <v>0.04771223557916317</v>
       </c>
       <c r="Q4" s="14" t="n"/>
       <c r="R4" s="14" t="n"/>
@@ -1727,6 +1727,11 @@
       <c r="R25" s="14" t="n"/>
       <c r="T25" s="15" t="n"/>
     </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="13" t="n"/>
@@ -1795,2147 +1800,2147 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10703.833984375</v>
+        <v>10608.1572265625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10706.736328125</v>
+        <v>10592.7578125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10701.560546875</v>
+        <v>10583.1083984375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10716.98828125</v>
+        <v>10538.365234375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10734.0439453125</v>
+        <v>10746.3896484375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10754.41796875</v>
+        <v>10804.880859375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10803.841796875</v>
+        <v>10883.2216796875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10818.1953125</v>
+        <v>10901.970703125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10804.85546875</v>
+        <v>10898.6943359375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10801.4755859375</v>
+        <v>10973.8017578125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10824.939453125</v>
+        <v>10987.705078125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10837.109375</v>
+        <v>10995.810546875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10832.8115234375</v>
+        <v>10992.41796875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10860.1650390625</v>
+        <v>10992.4658203125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10831.73046875</v>
+        <v>10977.2392578125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10840.521484375</v>
+        <v>10976.0126953125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10838.3115234375</v>
+        <v>10992.3125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10840.7314453125</v>
+        <v>11000.9482421875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10842.8125</v>
+        <v>10938.7861328125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10838.00390625</v>
+        <v>11042.6025390625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10817</v>
+        <v>11049.2890625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10817</v>
+        <v>11029.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10658.5</v>
+        <v>11029.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10596.5</v>
+        <v>11000.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10712.5</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10611</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10624</v>
+        <v>10658.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10576</v>
+        <v>10596.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10584.5</v>
+        <v>10712.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10802</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10374</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10776.5</v>
+        <v>10576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10697</v>
+        <v>10584.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10732</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10652.5</v>
+        <v>10374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10700</v>
+        <v>10776.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10481.5</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10360</v>
+        <v>10732</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10296</v>
+        <v>10652.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10428.5</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10205</v>
+        <v>10481.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10275.5</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10320</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9993.5</v>
+        <v>10428.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10002</v>
+        <v>10205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9996.5</v>
+        <v>10275.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9946</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9974</v>
+        <v>9993.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>10117</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10189</v>
+        <v>9996.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10064.5</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10057</v>
+        <v>9974</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10012</v>
+        <v>10117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9916.5</v>
+        <v>10189</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9906.5</v>
+        <v>10064.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9865</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9891.5</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9974</v>
+        <v>9916.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10013.5</v>
+        <v>9906.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9875</v>
+        <v>9865</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9906</v>
+        <v>9891.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9839.5</v>
+        <v>9974</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9773.5</v>
+        <v>10013.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9846.5</v>
+        <v>9875</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9809</v>
+        <v>9906</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9734.5</v>
+        <v>9839.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9721</v>
+        <v>9773.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9684.5</v>
+        <v>9846.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9752</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9760</v>
+        <v>9734.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9777</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9777</v>
+        <v>9684.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9840</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9726.5</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9768</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9670.5</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9674</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9634.5</v>
+        <v>9726.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9708.5</v>
+        <v>9768</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9633</v>
+        <v>9670.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9607</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9730</v>
+        <v>9634.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9803</v>
+        <v>9708.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9762.5</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9796</v>
+        <v>9607</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9854.5</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9933.5</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9898</v>
+        <v>9762.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9867</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9794.5</v>
+        <v>9854.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9678</v>
+        <v>9933.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9637</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>9657.5</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9643.5</v>
+        <v>9794.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9663</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9682</v>
+        <v>9637</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9660</v>
+        <v>9657.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9665</v>
+        <v>9643.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9784</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9852</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>9951.5</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>10010</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9943</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9878</v>
+        <v>9852</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>9879</v>
+        <v>9951.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>9896</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9727</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9664</v>
+        <v>9878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9694.5</v>
+        <v>9879</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9660.5</v>
+        <v>9896</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9619.5</v>
+        <v>9727</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9650.5</v>
+        <v>9664</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9670</v>
+        <v>9694.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9695</v>
+        <v>9660.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>9647.5</v>
+        <v>9619.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9690.5</v>
+        <v>9650.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>9647</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9725</v>
+        <v>9695</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>9768.5</v>
+        <v>9647.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9670.5</v>
+        <v>9690.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>9707.5</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9649</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9638.5</v>
+        <v>9768.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>9615</v>
+        <v>9670.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9497</v>
+        <v>9707.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9567</v>
+        <v>9649</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>9566</v>
+        <v>9638.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9596</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>9614</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9519.5</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>9487</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>9554.5</v>
+        <v>9596</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>9516</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>9440</v>
+        <v>9519.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9600</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>9592</v>
+        <v>9554.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9624.5</v>
+        <v>9516</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>9502</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>9439</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>9474.5</v>
+        <v>9592</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>9406</v>
+        <v>9624.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>9524</v>
+        <v>9502</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>9356</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>9245.5</v>
+        <v>9474.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>9125.5</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>9446.5</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>9405.5</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>9360</v>
+        <v>9245.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>9455</v>
+        <v>9125.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>9369</v>
+        <v>9446.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>9358</v>
+        <v>9405.5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>9254</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>9188.5</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>9137</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>9220.5</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>9184</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8977.5</v>
+        <v>9188.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8897</v>
+        <v>9137</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>8588</v>
+        <v>9220.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>8751.5</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>8685</v>
+        <v>8977.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>9330.5</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>9721</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9692.5</v>
+        <v>8751.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>9690</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>9783.5</v>
+        <v>9330.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>9846.5</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>9907</v>
+        <v>9692.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>10094.5</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>9928</v>
+        <v>9783.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9852</v>
+        <v>9846.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>9910</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>9997.5</v>
+        <v>10094.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>9902</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>9864.5</v>
+        <v>9852</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>9793</v>
+        <v>9910</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>9749</v>
+        <v>9997.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>9789</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>9679</v>
+        <v>9864.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>9493</v>
+        <v>9793</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>9602</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>9689</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>9594</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>9387</v>
+        <v>9493</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>9400</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>9361</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9413</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>9423</v>
+        <v>9387</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>9395</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>9502</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>9515.5</v>
+        <v>9413</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>9558</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>9442</v>
+        <v>9395</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>9475</v>
+        <v>9502</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>9382.5</v>
+        <v>9515.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>9465</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>9476</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>9469</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>9356.5</v>
+        <v>9382.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>9453</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>9446.5</v>
+        <v>9476</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>9289</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>9270</v>
+        <v>9356.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>9175</v>
+        <v>9453</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>9110</v>
+        <v>9446.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>9064</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>9113</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>9077</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>9015.5</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>9086.5</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>9269</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9237</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>9235</v>
+        <v>9015.5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>9291</v>
+        <v>9086.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3945,831 +3950,831 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>9181.5</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>9245</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>9217</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>9164</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>9094</v>
+        <v>9181.5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>9073.5</v>
+        <v>9245</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>9111.5</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9052</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>8980</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>8966</v>
+        <v>9073.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>8893.5</v>
+        <v>9111.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>8801</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>8781.5</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>8933.5</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>8981.5</v>
+        <v>8893.5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8967</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8936.5</v>
+        <v>8781.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8944</v>
+        <v>8933.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>8885</v>
+        <v>8981.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>9045</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>9006.5</v>
+        <v>8936.5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>9065</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>9056.5</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9072</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9177</v>
+        <v>9006.5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9234</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9231.5</v>
+        <v>9056.5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>9092.5</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>9090</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>9097</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>9120.5</v>
+        <v>9231.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>8996.5</v>
+        <v>9092.5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>9015</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>8987</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9018</v>
+        <v>9120.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>8962.5</v>
+        <v>8996.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>9044</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>8972.5</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>9023</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>9082</v>
+        <v>8962.5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>9117</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>9094.5</v>
+        <v>8972.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>8969</v>
+        <v>9023</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>9024</v>
+        <v>9082</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>9007.5</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>9144.5</v>
+        <v>9094.5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>9299</v>
+        <v>8969</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>9433</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>9678.5</v>
+        <v>9007.5</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>9321</v>
+        <v>9144.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>9733</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>9676</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>9539</v>
+        <v>9678.5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>9547</v>
+        <v>9321</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>9559</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>9550</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>9556</v>
+        <v>9539</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>9563.5</v>
+        <v>9547</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>9563</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>9503</v>
+        <v>9550</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>9619</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9562</v>
+        <v>9563.5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>9625.5</v>
+        <v>9563</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>9499</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>9591</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>9520</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>9648</v>
+        <v>9625.5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>9803</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>9737.5</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>9684</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>9758</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>9958.5</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>9961.5</v>
+        <v>9737.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>9888.5</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>10103</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>9952</v>
+        <v>9958.5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>9865</v>
+        <v>9961.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>9970.5</v>
+        <v>9888.5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>10090</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>9801</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>9821</v>
+        <v>9865</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>9542</v>
+        <v>9970.5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>9486</v>
+        <v>10090</v>
       </c>
     </row>
   </sheetData>
